--- a/pred_ohlcv/54/2019-10-22 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-22 MITH ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -428,6 +433,9 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -452,6 +460,9 @@
         <v>14.94499999999999</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -480,6 +491,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -506,6 +520,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -556,6 +576,9 @@
         <v>14.96499999999999</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,6 +605,9 @@
         <v>14.97333333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,6 +634,9 @@
         <v>14.97666666666666</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -634,6 +663,9 @@
         <v>14.98333333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,6 +692,9 @@
         <v>14.98666666666666</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,6 +721,9 @@
         <v>14.99</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -712,6 +750,9 @@
         <v>14.99333333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,6 +779,9 @@
         <v>14.99666666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -764,6 +808,9 @@
         <v>15</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,6 +837,9 @@
         <v>15.00333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,6 +866,9 @@
         <v>15.00666666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,6 +895,9 @@
         <v>15.00833333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -868,6 +924,9 @@
         <v>15.01166666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -894,6 +953,9 @@
         <v>15.01333333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -920,6 +982,9 @@
         <v>15.01666666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -946,6 +1011,9 @@
         <v>15.01833333333334</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -972,6 +1040,9 @@
         <v>15.02166666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -998,6 +1069,9 @@
         <v>15.02500000000001</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1024,6 +1098,9 @@
         <v>15.02833333333334</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,6 +1127,9 @@
         <v>15.03166666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1076,6 +1156,9 @@
         <v>15.03500000000001</v>
       </c>
       <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,6 +1185,9 @@
         <v>15.03833333333334</v>
       </c>
       <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1128,6 +1214,9 @@
         <v>15.04166666666668</v>
       </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,6 +1243,9 @@
         <v>15.04500000000001</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1180,6 +1272,9 @@
         <v>15.05000000000001</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1206,6 +1301,9 @@
         <v>15.05666666666668</v>
       </c>
       <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1232,6 +1330,9 @@
         <v>15.06166666666668</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1260,6 +1361,9 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1286,6 +1390,9 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1312,6 +1419,9 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1338,6 +1448,9 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1362,6 +1475,9 @@
         <v>15.08833333333335</v>
       </c>
       <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1388,6 +1504,9 @@
         <v>15.09166666666669</v>
       </c>
       <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1414,6 +1533,9 @@
         <v>15.09833333333335</v>
       </c>
       <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1440,6 +1562,9 @@
         <v>15.10333333333335</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1468,6 +1593,9 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1494,6 +1622,9 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1520,6 +1651,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1546,6 +1680,9 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1572,6 +1709,9 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1598,6 +1738,9 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1624,6 +1767,9 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1650,6 +1796,9 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1676,6 +1825,9 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1702,6 +1854,9 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1728,6 +1883,9 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +1912,9 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1780,550 +1941,7 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C55" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E55" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>270107.8947</v>
-      </c>
-      <c r="G55" t="n">
-        <v>15.13500000000002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C56" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D56" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E56" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F56" t="n">
-        <v>89755.6946</v>
-      </c>
-      <c r="G56" t="n">
-        <v>15.13666666666669</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C57" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D57" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E57" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F57" t="n">
-        <v>71.14279999999999</v>
-      </c>
-      <c r="G57" t="n">
-        <v>15.13833333333336</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C58" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D58" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E58" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F58" t="n">
-        <v>61.7647</v>
-      </c>
-      <c r="G58" t="n">
-        <v>15.14000000000002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C59" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D59" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E59" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2408.8572</v>
-      </c>
-      <c r="G59" t="n">
-        <v>15.14000000000002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="G60" t="n">
-        <v>15.13833333333336</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>61509.587</v>
-      </c>
-      <c r="G61" t="n">
-        <v>15.13500000000002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F62" t="n">
-        <v>92659.2095</v>
-      </c>
-      <c r="G62" t="n">
-        <v>15.13166666666669</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1753.35</v>
-      </c>
-      <c r="G63" t="n">
-        <v>15.13166666666669</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2143.549</v>
-      </c>
-      <c r="G64" t="n">
-        <v>15.13166666666669</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>534.1975</v>
-      </c>
-      <c r="G65" t="n">
-        <v>15.13166666666669</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>89531.3054</v>
-      </c>
-      <c r="G66" t="n">
-        <v>15.13333333333336</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2011.933</v>
-      </c>
-      <c r="G67" t="n">
-        <v>15.13500000000003</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C68" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D68" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E68" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F68" t="n">
-        <v>13605.4276</v>
-      </c>
-      <c r="G68" t="n">
-        <v>15.13500000000003</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E69" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F69" t="n">
-        <v>26700</v>
-      </c>
-      <c r="G69" t="n">
-        <v>15.13666666666669</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>39280.7739</v>
-      </c>
-      <c r="G70" t="n">
-        <v>15.13500000000003</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10628.969</v>
-      </c>
-      <c r="G71" t="n">
-        <v>15.13500000000003</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E72" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F72" t="n">
-        <v>300</v>
-      </c>
-      <c r="G72" t="n">
-        <v>15.13500000000003</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G73" t="n">
-        <v>15.13500000000003</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F74" t="n">
-        <v>101224.2155</v>
-      </c>
-      <c r="G74" t="n">
-        <v>15.13500000000003</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C75" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E75" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1523.6355</v>
-      </c>
-      <c r="G75" t="n">
-        <v>15.13500000000003</v>
-      </c>
-      <c r="H75" t="n">
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
